--- a/database/seeders/data/Coa.xlsx
+++ b/database/seeders/data/Coa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="633">
   <si>
     <t>code</t>
   </si>
@@ -1906,6 +1906,15 @@
   </si>
   <si>
     <t>Cost Of Trucking Sc Export - Sea Fcl 45</t>
+  </si>
+  <si>
+    <t>812-001</t>
+  </si>
+  <si>
+    <t>Current Income Tax</t>
+  </si>
+  <si>
+    <t>Current Income Summary</t>
   </si>
 </sst>
 </file>
@@ -2237,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="K291" sqref="K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8944,6 +8953,29 @@
       </c>
       <c r="G291" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>630</v>
+      </c>
+      <c r="B292" t="s">
+        <v>631</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" t="s">
+        <v>192</v>
+      </c>
+      <c r="E292" t="s">
+        <v>118</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
